--- a/数据整理/stocks/港股/09888-百度.xlsx
+++ b/数据整理/stocks/港股/09888-百度.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>397.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.5055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09888-百度.xlsx
+++ b/数据整理/stocks/港股/09888-百度.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164906</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>110.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.9169</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -830,64 +804,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.92</v>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09888-百度.xlsx
+++ b/数据整理/stocks/港股/09888-百度.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>26.05</v>
+        <v>35.69</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>7.92</v>
       </c>
     </row>
@@ -515,6 +532,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.8700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
